--- a/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.92165179503586</v>
+        <v>90.03812853074091</v>
       </c>
       <c r="D2" t="n">
-        <v>1.129788699976102</v>
+        <v>1.144080094827196</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.07629854678173</v>
+        <v>88.98243104643623</v>
       </c>
       <c r="D3" t="n">
-        <v>1.09833096775728</v>
+        <v>1.239591040362279</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.97555073505755</v>
+        <v>88.03728226324614</v>
       </c>
       <c r="D4" t="n">
-        <v>1.084621760161311</v>
+        <v>1.067088345551297</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.12557034766768</v>
+        <v>86.87398451919573</v>
       </c>
       <c r="D5" t="n">
-        <v>1.067804688457372</v>
+        <v>1.224299285699505</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.92897743217117</v>
+        <v>85.83024504115122</v>
       </c>
       <c r="D6" t="n">
-        <v>1.262515144676857</v>
+        <v>1.172899323678838</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.1912905117004</v>
+        <v>84.93480397199085</v>
       </c>
       <c r="D7" t="n">
-        <v>1.302514653212917</v>
+        <v>1.15972935140482</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.9860517895256</v>
+        <v>83.86833322913066</v>
       </c>
       <c r="D8" t="n">
-        <v>1.22194237812333</v>
+        <v>1.070121272252468</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.94958662874808</v>
+        <v>83.09142563324471</v>
       </c>
       <c r="D9" t="n">
-        <v>1.248059165248657</v>
+        <v>1.298347076049395</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.94997942675649</v>
+        <v>81.8313277432422</v>
       </c>
       <c r="D10" t="n">
-        <v>1.208621246744075</v>
+        <v>1.145634258807868</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.12032017637043</v>
+        <v>80.83349863101965</v>
       </c>
       <c r="D11" t="n">
-        <v>1.300032404472802</v>
+        <v>1.31975098233742</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.91405633968094</v>
+        <v>79.9649813754591</v>
       </c>
       <c r="D12" t="n">
-        <v>1.464153706077967</v>
+        <v>1.220407593687939</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.94409598415747</v>
+        <v>78.79446210043967</v>
       </c>
       <c r="D13" t="n">
-        <v>1.334184419012757</v>
+        <v>1.386077756310184</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.90137260243489</v>
+        <v>77.86922414276258</v>
       </c>
       <c r="D14" t="n">
-        <v>1.274813264559956</v>
+        <v>1.104545768688109</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.07143228152991</v>
+        <v>77.11854091857749</v>
       </c>
       <c r="D15" t="n">
-        <v>1.367698204485235</v>
+        <v>1.281114116132351</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.85989870172547</v>
+        <v>75.94418818653489</v>
       </c>
       <c r="D16" t="n">
-        <v>1.259331534073594</v>
+        <v>1.336023604832016</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.90968145818789</v>
+        <v>75.08209806428304</v>
       </c>
       <c r="D17" t="n">
-        <v>1.237302469089773</v>
+        <v>1.242037616506444</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.80167631310553</v>
+        <v>74.00889622624487</v>
       </c>
       <c r="D18" t="n">
-        <v>1.418774651314233</v>
+        <v>1.274830582272565</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.67432645816061</v>
+        <v>72.79642505328343</v>
       </c>
       <c r="D19" t="n">
-        <v>1.310969937600919</v>
+        <v>1.41535607695981</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.94509047048176</v>
+        <v>72.08746560927598</v>
       </c>
       <c r="D20" t="n">
-        <v>1.407369433955639</v>
+        <v>1.387188621758789</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.0206185507005</v>
+        <v>70.99200632531952</v>
       </c>
       <c r="D21" t="n">
-        <v>1.469253561094479</v>
+        <v>1.357337732811887</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.84493144513364</v>
+        <v>69.9268631746411</v>
       </c>
       <c r="D22" t="n">
-        <v>1.439692245395555</v>
+        <v>1.378099963607681</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.8158881227296</v>
+        <v>69.0065207540792</v>
       </c>
       <c r="D23" t="n">
-        <v>1.584182263931814</v>
+        <v>1.258517951314861</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.15612062261177</v>
+        <v>68.07705027628889</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35801169874032</v>
+        <v>1.474688262278377</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.86692553893388</v>
+        <v>67.27274305892023</v>
       </c>
       <c r="D25" t="n">
-        <v>1.38099886391298</v>
+        <v>1.408629281103976</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.16302369576628</v>
+        <v>66.01705421898303</v>
       </c>
       <c r="D26" t="n">
-        <v>1.652366813566253</v>
+        <v>1.431404545259125</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.00864500119887</v>
+        <v>65.25242381423755</v>
       </c>
       <c r="D27" t="n">
-        <v>1.590566346365297</v>
+        <v>1.495531316216246</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.67611684065297</v>
+        <v>63.91755550575441</v>
       </c>
       <c r="D28" t="n">
-        <v>1.487759989804978</v>
+        <v>1.556258538414181</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.1242270137136</v>
+        <v>63.07816230960891</v>
       </c>
       <c r="D29" t="n">
-        <v>1.408579989867133</v>
+        <v>1.459806109126901</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.81848257246423</v>
+        <v>61.97110599658063</v>
       </c>
       <c r="D30" t="n">
-        <v>1.580283253175693</v>
+        <v>1.584915852185079</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.10434673005774</v>
+        <v>60.79456268891325</v>
       </c>
       <c r="D31" t="n">
-        <v>1.586002641443974</v>
+        <v>1.428692732801425</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.97283060537767</v>
+        <v>59.76867880708608</v>
       </c>
       <c r="D32" t="n">
-        <v>1.356712100424547</v>
+        <v>1.554441858194443</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.16279026476066</v>
+        <v>59.00938452232517</v>
       </c>
       <c r="D33" t="n">
-        <v>1.670679342462373</v>
+        <v>1.496429011039293</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.05875317032411</v>
+        <v>58.2695668911207</v>
       </c>
       <c r="D34" t="n">
-        <v>1.578989404372834</v>
+        <v>1.548892409029601</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.96659764077623</v>
+        <v>56.79177744510258</v>
       </c>
       <c r="D35" t="n">
-        <v>1.72607397680108</v>
+        <v>1.548718136287689</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.94063981192126</v>
+        <v>55.76143379782106</v>
       </c>
       <c r="D36" t="n">
-        <v>1.56987756174339</v>
+        <v>1.533859257509749</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.82849681189163</v>
+        <v>54.9563121582995</v>
       </c>
       <c r="D37" t="n">
-        <v>1.722819565386057</v>
+        <v>1.471728155593324</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.96705087243723</v>
+        <v>54.34244460856666</v>
       </c>
       <c r="D38" t="n">
-        <v>1.810730406051451</v>
+        <v>1.844092240827628</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.0272792452682</v>
+        <v>52.9491489313034</v>
       </c>
       <c r="D39" t="n">
-        <v>1.652716537187698</v>
+        <v>1.509251491923046</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.17821349004016</v>
+        <v>52.05228349188243</v>
       </c>
       <c r="D40" t="n">
-        <v>1.776221548325515</v>
+        <v>1.682440084185593</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.36161102344884</v>
+        <v>50.94713409631695</v>
       </c>
       <c r="D41" t="n">
-        <v>1.837198426518799</v>
+        <v>1.630155569388819</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.07652035298155</v>
+        <v>49.90434578459788</v>
       </c>
       <c r="D42" t="n">
-        <v>1.78946621101287</v>
+        <v>1.490055080227261</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.96251920218856</v>
+        <v>49.0681600432494</v>
       </c>
       <c r="D43" t="n">
-        <v>1.666327503697838</v>
+        <v>1.572572400506292</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.68365996706812</v>
+        <v>47.86313055100069</v>
       </c>
       <c r="D44" t="n">
-        <v>1.605799238794496</v>
+        <v>1.633586563689449</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.83742065727084</v>
+        <v>46.77900861744129</v>
       </c>
       <c r="D45" t="n">
-        <v>1.652596136978296</v>
+        <v>1.704466689769965</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.38743723657085</v>
+        <v>46.13167170700013</v>
       </c>
       <c r="D46" t="n">
-        <v>1.750432743047666</v>
+        <v>1.670344918032838</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.63650412738174</v>
+        <v>45.14930835614066</v>
       </c>
       <c r="D47" t="n">
-        <v>1.740016235924432</v>
+        <v>2.032636417105243</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.21864047965626</v>
+        <v>43.86438064484429</v>
       </c>
       <c r="D48" t="n">
-        <v>1.765896056506581</v>
+        <v>1.968994912957015</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.86741118999674</v>
+        <v>42.75793752811629</v>
       </c>
       <c r="D49" t="n">
-        <v>1.674228902768593</v>
+        <v>1.616869313761685</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.94959524972276</v>
+        <v>42.12520246177915</v>
       </c>
       <c r="D50" t="n">
-        <v>1.737533922758886</v>
+        <v>1.659845167596157</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.14839217135033</v>
+        <v>40.93635684705525</v>
       </c>
       <c r="D51" t="n">
-        <v>1.60098993530827</v>
+        <v>1.896264667503184</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.76061621617211</v>
+        <v>39.94972439327839</v>
       </c>
       <c r="D52" t="n">
-        <v>1.99814286225021</v>
+        <v>1.948608759394079</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.55750881068641</v>
+        <v>38.73990093136705</v>
       </c>
       <c r="D53" t="n">
-        <v>1.895991423031315</v>
+        <v>1.890920368750479</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.96087021447322</v>
+        <v>37.63395409392059</v>
       </c>
       <c r="D54" t="n">
-        <v>1.795023714697058</v>
+        <v>1.792854293571186</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.79568143115278</v>
+        <v>36.96021741861257</v>
       </c>
       <c r="D55" t="n">
-        <v>1.860758064800866</v>
+        <v>1.545572190565476</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.10559412223346</v>
+        <v>36.31994139879887</v>
       </c>
       <c r="D56" t="n">
-        <v>1.944245878198595</v>
+        <v>1.813624977829037</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.10368346337814</v>
+        <v>34.95265722307455</v>
       </c>
       <c r="D57" t="n">
-        <v>1.932209158533534</v>
+        <v>1.921816679561305</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.24442048648306</v>
+        <v>33.85005927014488</v>
       </c>
       <c r="D58" t="n">
-        <v>1.924554010932294</v>
+        <v>2.050109326923021</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.10162071168004</v>
+        <v>32.99765548629204</v>
       </c>
       <c r="D59" t="n">
-        <v>1.815407457639243</v>
+        <v>1.885391265813263</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.75347456579071</v>
+        <v>31.76330286055483</v>
       </c>
       <c r="D60" t="n">
-        <v>2.028578127321389</v>
+        <v>2.113184476874944</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.33523281278632</v>
+        <v>30.62500052952084</v>
       </c>
       <c r="D61" t="n">
-        <v>2.021913230122633</v>
+        <v>1.919676211449351</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.42696063037389</v>
+        <v>29.90212020857212</v>
       </c>
       <c r="D62" t="n">
-        <v>1.835424436424447</v>
+        <v>1.640187081716841</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.99415836544598</v>
+        <v>29.10122955219454</v>
       </c>
       <c r="D63" t="n">
-        <v>1.829097369463653</v>
+        <v>1.997078964466553</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.13626837255865</v>
+        <v>27.85139702226289</v>
       </c>
       <c r="D64" t="n">
-        <v>1.913468545728995</v>
+        <v>2.017372534311145</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.6293278869454</v>
+        <v>26.66453259395035</v>
       </c>
       <c r="D65" t="n">
-        <v>1.998952989112552</v>
+        <v>2.033076663611877</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.06459217127135</v>
+        <v>25.84086996972366</v>
       </c>
       <c r="D66" t="n">
-        <v>2.142182269726428</v>
+        <v>1.997545499749991</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.00391654035187</v>
+        <v>25.01825758870977</v>
       </c>
       <c r="D67" t="n">
-        <v>1.834721956657261</v>
+        <v>1.933599880268616</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.01195332396725</v>
+        <v>24.34071103212046</v>
       </c>
       <c r="D68" t="n">
-        <v>1.95638666059145</v>
+        <v>1.935362357558631</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.83537387744463</v>
+        <v>23.03883048279049</v>
       </c>
       <c r="D69" t="n">
-        <v>2.006924833809459</v>
+        <v>2.123734917551328</v>
       </c>
     </row>
   </sheetData>
